--- a/Optimization case study - JoH/ressources/weights.xlsx
+++ b/Optimization case study - JoH/ressources/weights.xlsx
@@ -16,29 +16,22 @@
     <sheet name="results" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$C$5:$C$44</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$4</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet2!$E$4</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet2!$E$5:$E$44</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet2!$F$4</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet2!$F$5:$F$44</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">results!$AI$55:$AI$84</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">results!$AJ$54</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">results!$AJ$55:$AJ$84</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">results!$AK$54</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">results!$AK$55:$AK$84</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">results!$AL$54</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$D$5:$D$44</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">results!$AL$55:$AL$84</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">results!$AM$54</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">results!$AM$55:$AM$84</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$E$4</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$E$5:$E$44</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$F$4</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$F$5:$F$44</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$5:$C$44</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$D$4</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$D$5:$D$44</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$C$17:$C$56</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$16</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">results!$AK$54</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">results!$AK$55:$AK$84</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">results!$AL$54</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">results!$AL$55:$AL$84</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">results!$AM$54</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">results!$AM$55:$AM$84</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$D$17:$D$56</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$E$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$E$17:$E$56</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$F$16</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$F$17:$F$56</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">results!$AI$55:$AI$84</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">results!$AJ$54</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">results!$AJ$55:$AJ$84</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -3003,26 +2996,26 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3032,7 +3025,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7C9A65F9-06A5-4AAD-A91C-A7A82A2DBF3A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>4Zo</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3045,7 +3038,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{16A4BA32-0614-4596-BBBF-02B84D810A20}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>4Zo-2MIo</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3058,7 +3051,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{D6254AE1-021D-40F8-8394-6D7E4F902707}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>4Zo-4MIo</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3078,14 +3071,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Predictors (Z, by increasing pressure and time)</a:t>
                 </a:r>
@@ -3101,18 +3102,19 @@
             <a:pPr>
               <a:defRPr baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </cx:txPr>
@@ -3126,14 +3128,22 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr">
-                  <a:defRPr/>
+                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Weights</a:t>
                 </a:r>
@@ -3158,16 +3168,17 @@
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:cs typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="de-DE">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:endParaRPr>
           </a:p>
         </cx:txPr>
@@ -3188,34 +3199,34 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.15</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3226,7 +3237,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A463BC46-ED4A-4D7B-9407-10B16403A693}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.15</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>Z1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3239,7 +3250,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E39353FE-871D-4925-9F96-DBE52E363725}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.17</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v>Z2</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3252,7 +3263,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3C54687E-207B-4A47-ABAD-F84BE4BAAA0D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v>Z3</cx:v>
             </cx:txData>
           </cx:tx>
@@ -3265,7 +3276,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2E82C26D-6ACF-4A37-AF72-C7869AA49D54}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.14</cx:f>
               <cx:v>Z4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6519,15 +6530,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>271462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:colOff>576262</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -7071,230 +7082,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F44"/>
+  <dimension ref="C16:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F16" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="43">
-        <v>0.32</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0.23</v>
-      </c>
-      <c r="F5" s="46">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="43">
-        <v>0.3</v>
-      </c>
-      <c r="E6" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F6" s="46">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="43">
-        <v>0.27</v>
-      </c>
-      <c r="E7" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="F7" s="46">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="43">
-        <v>0.31</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0.26</v>
-      </c>
-      <c r="F8" s="46">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="43">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="E9" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="F9" s="46">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="44">
-        <v>0.27</v>
-      </c>
-      <c r="E10" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="F10" s="46">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="43">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E11" s="45">
-        <v>0.34</v>
-      </c>
-      <c r="F11" s="46">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="43">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E12" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="F12" s="46">
-        <v>0.36</v>
-      </c>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="43">
-        <v>0.26</v>
-      </c>
-      <c r="E13" s="45">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F13" s="46">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="43">
-        <v>0.27</v>
-      </c>
-      <c r="E14" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="F14" s="46">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="43">
-        <v>0.22</v>
-      </c>
-      <c r="E15" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="F15" s="46">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D16" s="43">
-        <v>0.27</v>
-      </c>
-      <c r="E16" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="F16" s="46">
-        <v>0.33</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="43">
-        <v>0.27</v>
+        <v>0.32</v>
       </c>
       <c r="E17" s="45">
-        <v>0.28000000000000003</v>
+        <v>0.23</v>
       </c>
       <c r="F17" s="46">
-        <v>0.28999999999999998</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="43">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="E18" s="45">
-        <v>0.35</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F18" s="46">
-        <v>0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="43">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="E19" s="45">
-        <v>0.28000000000000003</v>
+        <v>0.24</v>
       </c>
       <c r="F19" s="46">
         <v>0.25</v>
@@ -7302,351 +7145,519 @@
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="44">
-        <v>0.25</v>
+        <v>51</v>
+      </c>
+      <c r="D20" s="43">
+        <v>0.31</v>
       </c>
       <c r="E20" s="45">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="F20" s="46">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D21" s="43">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E21" s="45">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="F21" s="46">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="43">
-        <v>0.3</v>
+        <v>51</v>
+      </c>
+      <c r="D22" s="44">
+        <v>0.27</v>
       </c>
       <c r="E22" s="45">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="F22" s="46">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="43">
         <v>0.28999999999999998</v>
       </c>
       <c r="E23" s="45">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
       <c r="F23" s="46">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="43">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E24" s="45">
-        <v>0.22</v>
+        <v>0.33</v>
       </c>
       <c r="F24" s="46">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" s="43">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E25" s="45">
-        <v>0.26</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F25" s="46">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" s="43">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="E26" s="45">
+        <v>0.33</v>
+      </c>
+      <c r="F26" s="46">
         <v>0.25</v>
-      </c>
-      <c r="F26" s="46">
-        <v>0.24</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="43">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
       <c r="E27" s="45">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="F27" s="46">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28" s="43">
         <v>0.27</v>
       </c>
       <c r="E28" s="45">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="F28" s="46">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D29" s="43">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="E29" s="45">
-        <v>0.17</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F29" s="46">
-        <v>0.23</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="44">
-        <v>0.26</v>
+        <v>52</v>
+      </c>
+      <c r="D30" s="43">
+        <v>0.22</v>
       </c>
       <c r="E30" s="45">
-        <v>0.24</v>
+        <v>0.35</v>
       </c>
       <c r="F30" s="46">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" s="43">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="E31" s="45">
-        <v>0.21</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F31" s="46">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="43">
-        <v>0.22</v>
+        <v>52</v>
+      </c>
+      <c r="D32" s="44">
+        <v>0.25</v>
       </c>
       <c r="E32" s="45">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="F32" s="46">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="43">
-        <v>0.28999999999999998</v>
+        <v>0.31</v>
       </c>
       <c r="E33" s="45">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="F33" s="46">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="43">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="E34" s="45">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="F34" s="46">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" s="43">
-        <v>0.22</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E35" s="45">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="F35" s="46">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D36" s="43">
-        <v>0.19000010000000001</v>
+        <v>0.27</v>
       </c>
       <c r="E36" s="45">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="F36" s="46">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D37" s="43">
-        <v>0.19000010000000001</v>
+        <v>0.24</v>
       </c>
       <c r="E37" s="45">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="F37" s="46">
-        <v>0.2</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="43">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="E38" s="45">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="F38" s="46">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="39" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D39" s="43">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="E39" s="45">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="F39" s="46">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" s="44">
-        <v>0.22</v>
+        <v>53</v>
+      </c>
+      <c r="D40" s="43">
+        <v>0.27</v>
       </c>
       <c r="E40" s="45">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="F40" s="46">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="41" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D41" s="43">
-        <v>0.16</v>
+        <v>0.26</v>
       </c>
       <c r="E41" s="45">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="F41" s="46">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="42" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D42" s="43">
-        <v>0.19000010000000001</v>
+        <v>53</v>
+      </c>
+      <c r="D42" s="44">
+        <v>0.26</v>
       </c>
       <c r="E42" s="45">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="F42" s="46">
-        <v>0.17</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="43" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D43" s="43">
-        <v>0.16000010000000001</v>
+        <v>0.24</v>
       </c>
       <c r="E43" s="45">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="F43" s="46">
-        <v>0.16</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="44" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="43">
+        <v>0.22</v>
+      </c>
+      <c r="E44" s="45">
+        <v>0.16</v>
+      </c>
+      <c r="F44" s="46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="43">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E45" s="45">
+        <v>0.24</v>
+      </c>
+      <c r="F45" s="46">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="43">
+        <v>0.23</v>
+      </c>
+      <c r="E46" s="45">
+        <v>0.22</v>
+      </c>
+      <c r="F46" s="46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="43">
+      <c r="D47" s="43">
+        <v>0.22</v>
+      </c>
+      <c r="E47" s="45">
+        <v>0.26</v>
+      </c>
+      <c r="F47" s="46">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" s="43">
+        <v>0.19000010000000001</v>
+      </c>
+      <c r="E48" s="45">
         <v>0.23</v>
       </c>
-      <c r="E44" s="45">
+      <c r="F48" s="46">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D49" s="43">
+        <v>0.19000010000000001</v>
+      </c>
+      <c r="E49" s="45">
+        <v>0.21</v>
+      </c>
+      <c r="F49" s="46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="43">
+        <v>0.2</v>
+      </c>
+      <c r="E50" s="45">
         <v>0.23</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F50" s="46">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" s="43">
+        <v>0.23</v>
+      </c>
+      <c r="E51" s="45">
+        <v>0.25</v>
+      </c>
+      <c r="F51" s="46">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="44">
+        <v>0.22</v>
+      </c>
+      <c r="E52" s="45">
+        <v>0.22</v>
+      </c>
+      <c r="F52" s="46">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="43">
+        <v>0.16</v>
+      </c>
+      <c r="E53" s="45">
+        <v>0.18</v>
+      </c>
+      <c r="F53" s="46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="43">
+        <v>0.19000010000000001</v>
+      </c>
+      <c r="E54" s="45">
+        <v>0.21</v>
+      </c>
+      <c r="F54" s="46">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55" s="43">
+        <v>0.16000010000000001</v>
+      </c>
+      <c r="E55" s="45">
+        <v>0.2</v>
+      </c>
+      <c r="F55" s="46">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" s="43">
+        <v>0.23</v>
+      </c>
+      <c r="E56" s="45">
+        <v>0.23</v>
+      </c>
+      <c r="F56" s="46">
         <v>0.26</v>
       </c>
     </row>
